--- a/Seguimiento del Proyecto/Product_Backlog.xlsx
+++ b/Seguimiento del Proyecto/Product_Backlog.xlsx
@@ -663,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -712,48 +712,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,7 +1075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1083,545 +1088,545 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+      <c r="A2" s="52">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="42">
         <v>22</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35">
+      <c r="A3" s="53"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="34">
         <v>29</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35">
+      <c r="A4" s="53"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="34">
         <v>41</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35">
+      <c r="A5" s="53"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="34">
         <v>49</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35">
+      <c r="A6" s="53"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="34">
         <v>65</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35">
+      <c r="A7" s="53"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="34">
         <v>80</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35">
+      <c r="A8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="34">
         <v>92</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35">
+      <c r="A9" s="53"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="34">
         <v>128</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="36" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35">
+      <c r="A10" s="53"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="34">
         <v>129</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42">
+      <c r="A11" s="54"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="37">
         <v>130</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
+      <c r="A12" s="52">
         <v>2</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="42">
         <v>16</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42">
+      <c r="A13" s="54"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="37">
         <v>30</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="A14" s="52">
         <v>4</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="44">
         <v>42</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="43" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37">
+      <c r="A15" s="53"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="35">
         <v>67</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="36" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37">
+      <c r="A16" s="53"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="35">
         <v>103</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="36" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37">
+      <c r="A17" s="53"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="35">
         <v>104</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="45">
         <v>105</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="47">
+      <c r="A19" s="52">
         <v>6</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="44">
         <v>108</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="35">
         <v>109</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54">
+      <c r="A21" s="54"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="45">
         <v>110</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="47">
+      <c r="A22" s="52">
         <v>7</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="44">
         <v>111</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37">
+      <c r="A23" s="53"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="35">
         <v>112</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37">
+      <c r="A24" s="53"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="35">
         <v>113</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54">
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="45">
         <v>114</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+      <c r="A26" s="52">
         <v>8</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="42">
         <v>115</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42">
+      <c r="A27" s="54"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="37">
         <v>116</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="47">
+      <c r="A28" s="52">
         <v>9</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="42">
         <v>117</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42">
+      <c r="A29" s="54"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="37">
         <v>135</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="47">
+      <c r="A30" s="52">
         <v>5</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="42">
         <v>106</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35">
+      <c r="A31" s="53"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="34">
         <v>107</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35">
+      <c r="A32" s="53"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="34">
         <v>36</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42">
+      <c r="A33" s="54"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="37">
         <v>11</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55">
+      <c r="A34" s="46">
         <v>101</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="47">
         <v>118</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="48" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="47">
+      <c r="A35" s="52">
         <v>3</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="42">
         <v>52</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35">
+      <c r="A36" s="53"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="34">
         <v>60</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35">
+      <c r="A37" s="53"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="34">
         <v>77</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42">
+      <c r="A38" s="54"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="37">
         <v>76</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="47">
+      <c r="A39" s="52">
         <v>10</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="42">
         <v>96</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35">
+      <c r="A40" s="53"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="34">
         <v>119</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35">
+      <c r="A41" s="53"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="34">
         <v>120</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35">
+      <c r="A42" s="53"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="34">
         <v>121</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42">
+      <c r="A43" s="54"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="37">
         <v>122</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="47">
+      <c r="A44" s="52">
         <v>102</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="42">
         <v>123</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="43" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35">
+      <c r="A45" s="53"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="34">
         <v>124</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="35">
+      <c r="A46" s="53"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="34">
         <v>125</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35">
+      <c r="A47" s="53"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="34">
         <v>126</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42">
+      <c r="A48" s="54"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="37">
         <v>127</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="38" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B35:B38"/>
@@ -1632,12 +1637,12 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
